--- a/Code/Results/Cases/Case_0_137/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_137/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>14.43120728913512</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>27.17690546817894</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>14.9285466420196</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>121.7835574186971</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>3.973417244522003</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>10.0642560015844</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>18.99769123883691</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>14.45697686785352</v>
+      </c>
+      <c r="D3">
+        <v>26.82640620861692</v>
+      </c>
+      <c r="E3">
+        <v>14.99234492115847</v>
+      </c>
+      <c r="F3">
+        <v>119.596401647891</v>
+      </c>
+      <c r="G3">
+        <v>4.003351093074133</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>10.14362058166755</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>18.40031508502705</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>14.47994544739185</v>
+      </c>
+      <c r="D4">
+        <v>26.62908585617779</v>
+      </c>
+      <c r="E4">
+        <v>15.03800803910074</v>
+      </c>
+      <c r="F4">
+        <v>118.3303502715803</v>
+      </c>
+      <c r="G4">
+        <v>4.02222900224354</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>10.19527334733987</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>18.02485520896364</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>14.4910466991552</v>
+      </c>
+      <c r="D5">
+        <v>26.55305405450133</v>
+      </c>
+      <c r="E5">
+        <v>15.05820796866114</v>
+      </c>
+      <c r="F5">
+        <v>117.8334473084913</v>
+      </c>
+      <c r="G5">
+        <v>4.030054688400599</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>10.21705851586745</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>17.86990355188116</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>14.49299366675982</v>
+      </c>
+      <c r="D6">
+        <v>26.54068993074125</v>
+      </c>
+      <c r="E6">
+        <v>15.06165717203741</v>
+      </c>
+      <c r="F6">
+        <v>117.7520768689245</v>
+      </c>
+      <c r="G6">
+        <v>4.031362364442288</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>10.22072043632539</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>17.84406337566596</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>14.48008818296745</v>
+      </c>
+      <c r="D7">
+        <v>26.62804289750093</v>
+      </c>
+      <c r="E7">
+        <v>15.03827406820314</v>
+      </c>
+      <c r="F7">
+        <v>118.3235722466597</v>
+      </c>
+      <c r="G7">
+        <v>4.022333995106777</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>10.19556416678706</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>18.02277304766463</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>14.43857499253278</v>
+      </c>
+      <c r="D8">
+        <v>27.05226800427088</v>
+      </c>
+      <c r="E8">
+        <v>14.94917192909378</v>
+      </c>
+      <c r="F8">
+        <v>121.0132851645827</v>
+      </c>
+      <c r="G8">
+        <v>3.983639674409311</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>10.09101508192964</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>18.79364780656866</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>14.41656387708968</v>
+      </c>
+      <c r="D9">
+        <v>28.03169088961758</v>
+      </c>
+      <c r="E9">
+        <v>14.82793146985039</v>
+      </c>
+      <c r="F9">
+        <v>126.9126399264981</v>
+      </c>
+      <c r="G9">
+        <v>3.911342905048238</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>9.909132502317211</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>20.22736832029966</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>14.44069047635148</v>
+      </c>
+      <c r="D10">
+        <v>28.84957852376726</v>
+      </c>
+      <c r="E10">
+        <v>14.77452806381353</v>
+      </c>
+      <c r="F10">
+        <v>131.6523855158699</v>
+      </c>
+      <c r="G10">
+        <v>3.859829257411471</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>9.789553952611357</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>21.22223697909766</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>14.46143595416637</v>
+      </c>
+      <c r="D11">
+        <v>29.24512199796821</v>
+      </c>
+      <c r="E11">
+        <v>14.75875883115048</v>
+      </c>
+      <c r="F11">
+        <v>133.9037686822287</v>
+      </c>
+      <c r="G11">
+        <v>3.836592087830677</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>9.738200466718926</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>21.66018057919896</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>14.4707928081955</v>
+      </c>
+      <c r="D12">
+        <v>29.39848745682386</v>
+      </c>
+      <c r="E12">
+        <v>14.75408789645403</v>
+      </c>
+      <c r="F12">
+        <v>134.770768525624</v>
+      </c>
+      <c r="G12">
+        <v>3.827806509594894</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>9.71919218568884</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>21.82377585681918</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>14.46870923397509</v>
+      </c>
+      <c r="D13">
+        <v>29.36529452165347</v>
+      </c>
+      <c r="E13">
+        <v>14.75503473177984</v>
+      </c>
+      <c r="F13">
+        <v>134.5833878964359</v>
+      </c>
+      <c r="G13">
+        <v>3.829698277753429</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>9.723266457245613</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>21.78864458690796</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>14.46217507556744</v>
+      </c>
+      <c r="D14">
+        <v>29.25766638481833</v>
+      </c>
+      <c r="E14">
+        <v>14.75834802391534</v>
+      </c>
+      <c r="F14">
+        <v>133.9748026944396</v>
+      </c>
+      <c r="G14">
+        <v>3.83586910577295</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>9.736627857492488</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>21.67368539489593</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>14.45837123074426</v>
+      </c>
+      <c r="D15">
+        <v>29.19221416355843</v>
+      </c>
+      <c r="E15">
+        <v>14.76054925825992</v>
+      </c>
+      <c r="F15">
+        <v>133.6039340447681</v>
+      </c>
+      <c r="G15">
+        <v>3.839650254438585</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>9.744869188327479</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>21.60297336126115</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>14.43953927320633</v>
+      </c>
+      <c r="D16">
+        <v>28.82421811838719</v>
+      </c>
+      <c r="E16">
+        <v>14.77573633066721</v>
+      </c>
+      <c r="F16">
+        <v>131.5072292446181</v>
+      </c>
+      <c r="G16">
+        <v>3.861350628298771</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>9.792971298518452</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>21.19330956972086</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>14.43055381601213</v>
+      </c>
+      <c r="D17">
+        <v>28.60461453118813</v>
+      </c>
+      <c r="E17">
+        <v>14.78728671545164</v>
+      </c>
+      <c r="F17">
+        <v>130.24584467031</v>
+      </c>
+      <c r="G17">
+        <v>3.874703802598636</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>9.823260093108182</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>20.93814219015166</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>14.42629888554854</v>
+      </c>
+      <c r="D18">
+        <v>28.48050063034312</v>
+      </c>
+      <c r="E18">
+        <v>14.79472755209769</v>
+      </c>
+      <c r="F18">
+        <v>129.5292403148403</v>
+      </c>
+      <c r="G18">
+        <v>3.882403677265006</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>9.840967805395266</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>20.79000725568141</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>14.42501234257344</v>
+      </c>
+      <c r="D19">
+        <v>28.43884929264852</v>
+      </c>
+      <c r="E19">
+        <v>14.7973817091131</v>
+      </c>
+      <c r="F19">
+        <v>129.2881207632696</v>
+      </c>
+      <c r="G19">
+        <v>3.885014477019152</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>9.847012513745559</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>20.73962067985785</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>14.43141515271513</v>
+      </c>
+      <c r="D20">
+        <v>28.62776302323305</v>
+      </c>
+      <c r="E20">
+        <v>14.78597412128632</v>
+      </c>
+      <c r="F20">
+        <v>130.3791941126442</v>
+      </c>
+      <c r="G20">
+        <v>3.873280416434892</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>9.820006155809955</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>20.96544799483449</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>14.46405275808425</v>
+      </c>
+      <c r="D21">
+        <v>29.28918036332862</v>
+      </c>
+      <c r="E21">
+        <v>14.75733889069126</v>
+      </c>
+      <c r="F21">
+        <v>134.1531598106529</v>
+      </c>
+      <c r="G21">
+        <v>3.834056333801166</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>9.7326913916891</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>21.70751365554064</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>14.49418538998681</v>
+      </c>
+      <c r="D22">
+        <v>29.74245404848817</v>
+      </c>
+      <c r="E22">
+        <v>14.74624646560408</v>
+      </c>
+      <c r="F22">
+        <v>136.7043849711398</v>
+      </c>
+      <c r="G22">
+        <v>3.80849351515288</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>9.678180780241057</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>22.17935961385674</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>14.47726285185401</v>
+      </c>
+      <c r="D23">
+        <v>29.49853461969369</v>
+      </c>
+      <c r="E23">
+        <v>14.75144199335609</v>
+      </c>
+      <c r="F23">
+        <v>135.3346955721916</v>
+      </c>
+      <c r="G23">
+        <v>3.822135572480598</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>9.707040051433193</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>21.92877110911181</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>14.43102291215998</v>
+      </c>
+      <c r="D24">
+        <v>28.6172909420446</v>
+      </c>
+      <c r="E24">
+        <v>14.78656505766967</v>
+      </c>
+      <c r="F24">
+        <v>130.3188801517003</v>
+      </c>
+      <c r="G24">
+        <v>3.873923856750666</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>9.821476344278675</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>20.95310750188673</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>14.41575988605907</v>
+      </c>
+      <c r="D25">
+        <v>27.75011570343635</v>
+      </c>
+      <c r="E25">
+        <v>14.85470693446184</v>
+      </c>
+      <c r="F25">
+        <v>125.2475181486498</v>
+      </c>
+      <c r="G25">
+        <v>3.930573551161523</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>9.9558662326762</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>19.84905939529497</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
